--- a/PIT2/Logboek.xlsx
+++ b/PIT2/Logboek.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camiel\Documents\GitHub\Casus-blok-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Documents\Casus-blok-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Totaal" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Logboek Davy Heutmekers</t>
   </si>
@@ -779,18 +779,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
         <v>10</v>
@@ -801,7 +801,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="25"/>
       <c r="C2" s="21"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(Davy!E2+Delano!E2+Dennis!E2)</f>
-        <v>7.166666666666667</v>
+        <v>13.166666666666668</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="24"/>
@@ -834,19 +834,19 @@
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="59.7109375" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
         <v>0</v>
@@ -857,7 +857,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -871,7 +871,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
@@ -890,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -903,7 +903,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -914,7 +914,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -936,7 +936,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -947,7 +947,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -971,7 +971,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -995,7 +995,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
@@ -1306,17 +1306,17 @@
       <selection pane="bottomRight" activeCell="G12" sqref="B5:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
         <v>9</v>
@@ -1327,7 +1327,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1341,7 +1341,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
@@ -1360,7 +1360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1373,7 +1373,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
         <v>42016</v>
@@ -1395,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10">
         <v>42016</v>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
         <v>42016</v>
@@ -1439,7 +1439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="10">
         <v>42017</v>
@@ -1461,7 +1461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
         <v>42017</v>
@@ -1483,7 +1483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="10">
         <v>42017</v>
@@ -1505,7 +1505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
         <v>42017</v>
@@ -1527,7 +1527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10">
         <v>42017</v>
@@ -1549,7 +1549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
@@ -1852,25 +1852,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
         <v>11</v>
@@ -1881,7 +1881,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1890,12 +1890,12 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(F5:F62)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
@@ -1914,7 +1914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1927,18 +1927,29 @@
       <c r="F4" s="27"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="5">
+        <v>42016</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.625</v>
+      </c>
       <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F5" si="0">HOUR(E5)-HOUR(D5)+(MINUTE(E5)-MINUTE(D5))/60</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
@@ -1950,19 +1961,19 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:F37" si="0">HOUR(E7)-HOUR(D7)+(MINUTE(E7)-MINUTE(D7))/60</f>
+        <f t="shared" ref="F7:F37" si="1">HOUR(E7)-HOUR(D7)+(MINUTE(E7)-MINUTE(D7))/60</f>
         <v>0</v>
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1974,330 +1985,330 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G37" s="19"/>
@@ -2312,7 +2323,7 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige waarde" error="De kilometerstand moet tussen 0 en 999.999,9 liggen" sqref="F8 F6 F16 F10 F12 F14 F26 F20 F18 F22 F24 D5:E37 F30 F28 F32 F34 F36">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige waarde" error="De kilometerstand moet tussen 0 en 999.999,9 liggen" sqref="F8 F6 F16 F10 F12 F14 F26 F20 F18 F22 F24 F36 F30 F28 F32 F34 D5:E37">
       <formula1>0</formula1>
       <formula2>999999.9</formula2>
     </dataValidation>
@@ -2325,25 +2336,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
         <v>12</v>
@@ -2354,7 +2365,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -2368,7 +2379,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
@@ -2387,7 +2398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -2400,7 +2411,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
         <v>42016</v>
@@ -2422,7 +2433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10">
         <v>42017</v>
@@ -2444,7 +2455,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
         <v>42017</v>
@@ -2466,7 +2477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -2477,7 +2488,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -2488,7 +2499,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -2499,7 +2510,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -2510,7 +2521,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -2521,7 +2532,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -2532,7 +2543,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -2543,7 +2554,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -2554,7 +2565,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -2565,7 +2576,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
@@ -2576,7 +2587,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -2587,7 +2598,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -2598,7 +2609,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -2609,7 +2620,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -2620,7 +2631,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -2631,7 +2642,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -2642,7 +2653,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -2653,7 +2664,7 @@
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -2664,7 +2675,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -2675,7 +2686,7 @@
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>

--- a/PIT2/Logboek.xlsx
+++ b/PIT2/Logboek.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Documents\Casus-blok-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davy\Documents\GitHub\Casus-blok-2\PIT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Totaal" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Logboek Davy Heutmekers</t>
   </si>
@@ -495,7 +495,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,9 +511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -551,7 +551,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -623,7 +623,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(Davy!E2+Delano!E2+Dennis!E2)</f>
-        <v>13.166666666666668</v>
+        <v>21.166666666666668</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="24"/>
@@ -827,11 +827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(F5:F62)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
@@ -903,27 +903,49 @@
       <c r="F4" s="27"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="5">
+        <v>42016</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.625</v>
+      </c>
       <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F5:F6" si="0">HOUR(E5)-HOUR(D5)+(MINUTE(E5)-MINUTE(D5))/60</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="10">
+        <v>42017</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -954,7 +976,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8">
-        <f t="shared" ref="F9:F16" si="0">HOUR(E9)-HOUR(D9)+(MINUTE(E9)-MINUTE(D9))/60</f>
+        <f t="shared" ref="F9:F16" si="1">HOUR(E9)-HOUR(D9)+(MINUTE(E9)-MINUTE(D9))/60</f>
         <v>0</v>
       </c>
       <c r="G9" s="9"/>
@@ -966,7 +988,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="14"/>
@@ -978,7 +1000,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="9"/>
@@ -990,7 +1012,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="14"/>
@@ -1002,7 +1024,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="9"/>
@@ -1014,7 +1036,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="14"/>
@@ -1026,7 +1048,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="9"/>
@@ -1038,7 +1060,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="14"/>
@@ -1050,7 +1072,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8">
-        <f t="shared" ref="F17:F37" si="1">HOUR(E17)-HOUR(D17)+(MINUTE(E17)-MINUTE(D17))/60</f>
+        <f t="shared" ref="F17:F37" si="2">HOUR(E17)-HOUR(D17)+(MINUTE(E17)-MINUTE(D17))/60</f>
         <v>0</v>
       </c>
       <c r="G17" s="9"/>
@@ -1061,7 +1083,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="14"/>
@@ -1072,7 +1094,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="9"/>
@@ -1083,7 +1105,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="14"/>
@@ -1094,7 +1116,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="9"/>
@@ -1105,7 +1127,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="14"/>
@@ -1116,7 +1138,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="9"/>
@@ -1127,7 +1149,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="14"/>
@@ -1138,7 +1160,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="9"/>
@@ -1149,7 +1171,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="14"/>
@@ -1160,7 +1182,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="9"/>
@@ -1171,7 +1193,7 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="14"/>
@@ -1182,7 +1204,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="9"/>
@@ -1193,7 +1215,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="14"/>
@@ -1204,7 +1226,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="9"/>
@@ -1215,7 +1237,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="14"/>
@@ -1226,7 +1248,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="9"/>
@@ -1237,7 +1259,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="14"/>
@@ -1248,7 +1270,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="9"/>
@@ -1259,7 +1281,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="14"/>
@@ -1270,7 +1292,7 @@
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="19"/>
@@ -1285,7 +1307,7 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige waarde" error="De kilometerstand moet tussen 0 en 999.999,9 liggen" sqref="F8 D5:E37 F16 F10 F12 F14 F26 F20 F18 F22 F24 F36 F30 F28 F32 F34 F6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige waarde" error="De kilometerstand moet tussen 0 en 999.999,9 liggen" sqref="F8 F16 F10 F12 F14 F26 F20 F18 F22 F24 F36 F30 F28 F32 F34 D5:E37 F6">
       <formula1>0</formula1>
       <formula2>999999.9</formula2>
     </dataValidation>
@@ -1852,11 +1874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7:B12"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2362,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
